--- a/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D45E3F5-3748-8347-B3D3-DE9C8995F23D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EF53C8-5695-2C4C-85AB-3B994A19807D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17200" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="106">
   <si>
     <t>table_name</t>
   </si>
@@ -155,9 +155,6 @@
     <t>receiveddate</t>
   </si>
   <si>
-    <t>Rcvd Date</t>
-  </si>
-  <si>
     <t>abandoneddate</t>
   </si>
   <si>
@@ -339,6 +336,17 @@
   </si>
   <si>
     <t>annualreport_id</t>
+  </si>
+  <si>
+    <t>Rcvd Date1
+Rcvd Date2
+Rcvd Date3
+Rcvd Date4
+Rcvd Date5
+Rcvd Date6</t>
+  </si>
+  <si>
+    <t>get_max_col</t>
   </si>
 </sst>
 </file>
@@ -431,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -463,6 +471,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,9 +692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1009,8 +1020,11 @@
       <c r="H12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>43</v>
+      <c r="J12" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1021,7 +1035,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>23</v>
@@ -1038,7 +1052,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>41</v>
@@ -1055,7 +1069,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>41</v>
@@ -1072,7 +1086,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>41</v>
@@ -1084,16 +1098,16 @@
         <v>24</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="P16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="6" t="s">
+      <c r="Q16" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1104,7 +1118,7 @@
         <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>41</v>
@@ -1121,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>41</v>
@@ -1138,7 +1152,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>41</v>
@@ -1155,7 +1169,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>23</v>
@@ -1167,7 +1181,7 @@
         <v>24</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1178,7 +1192,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>20</v>
@@ -1187,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1198,7 +1212,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>20</v>
@@ -1207,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2690,7 +2704,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -2707,13 +2721,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>20</v>
@@ -2722,38 +2736,38 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>23</v>
@@ -2762,27 +2776,27 @@
         <v>0</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="P5" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>41</v>
@@ -2791,18 +2805,18 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>23</v>
@@ -2811,24 +2825,24 @@
         <v>0</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>41</v>
@@ -2837,53 +2851,53 @@
         <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="P8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>23</v>
@@ -2892,21 +2906,21 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>23</v>
@@ -2915,27 +2929,27 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>84</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>20</v>
@@ -2944,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4379,16 +4393,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4397,10 +4411,10 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5427,93 +5441,93 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6607,7 +6621,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -6624,13 +6638,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>41</v>
@@ -6641,13 +6655,13 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>41</v>
@@ -6658,13 +6672,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>41</v>
@@ -6675,13 +6689,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -6690,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EF53C8-5695-2C4C-85AB-3B994A19807D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804E9ED9-24E9-FE4F-887D-EDBBA764A3BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17200" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="107">
   <si>
     <t>table_name</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>get_max_col</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -692,9 +695,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -703,11 +706,11 @@
     <col min="2" max="2" width="9.1640625" customWidth="1"/>
     <col min="3" max="3" width="26.1640625" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="119.5" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="6" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="119.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="22.5" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
@@ -1025,6 +1028,9 @@
       </c>
       <c r="K12" t="s">
         <v>105</v>
+      </c>
+      <c r="P12" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804E9ED9-24E9-FE4F-887D-EDBBA764A3BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC3996F-5837-C149-8A0B-C30877783F04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17200" yWindow="460" windowWidth="34400" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45880" yWindow="460" windowWidth="22920" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="annual_report_logs" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="108">
   <si>
     <t>table_name</t>
   </si>
@@ -351,12 +351,15 @@
   <si>
     <t>yes</t>
   </si>
+  <si>
+    <t>current_date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -393,6 +396,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -442,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -478,6 +487,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,9 +709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -714,7 +728,7 @@
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="22.5" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="13" max="13" width="13" style="18" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
     <col min="15" max="15" width="18.33203125" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" customWidth="1"/>
@@ -758,7 +772,7 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -828,6 +842,9 @@
       <c r="K3" s="6" t="s">
         <v>26</v>
       </c>
+      <c r="N3" s="19" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -851,6 +868,9 @@
       <c r="J4" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="N4" s="19" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -891,6 +911,9 @@
       <c r="E6" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -962,6 +985,9 @@
       </c>
       <c r="K9" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC3996F-5837-C149-8A0B-C30877783F04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071CBA14-C2D0-034E-A020-CE60BF77528B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45880" yWindow="460" windowWidth="22920" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="annual_report_logs" sheetId="1" r:id="rId1"/>
-    <sheet name="annual_report_lodging_details" sheetId="2" r:id="rId2"/>
-    <sheet name="furthered_lookup" sheetId="3" r:id="rId3"/>
-    <sheet name="revstatus_lookup" sheetId="4" r:id="rId4"/>
-    <sheet name="annual_report_type_assignments" sheetId="5" r:id="rId5"/>
+    <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
+    <sheet name="annual_report_logs" sheetId="1" r:id="rId2"/>
+    <sheet name="annual_report_lodging_details" sheetId="2" r:id="rId3"/>
+    <sheet name="furthered_lookup" sheetId="3" r:id="rId4"/>
+    <sheet name="revstatus_lookup" sheetId="4" r:id="rId5"/>
+    <sheet name="annual_report_type_assignments" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="119">
   <si>
     <t>table_name</t>
   </si>
@@ -354,12 +355,45 @@
   <si>
     <t>current_date</t>
   </si>
+  <si>
+    <t>mapping_file_name</t>
+  </si>
+  <si>
+    <t>entity_name</t>
+  </si>
+  <si>
+    <t>required_entities</t>
+  </si>
+  <si>
+    <t>destination_table_name</t>
+  </si>
+  <si>
+    <t>table_type</t>
+  </si>
+  <si>
+    <t>source_table_name</t>
+  </si>
+  <si>
+    <t>casrec_conditions</t>
+  </si>
+  <si>
+    <t>source_table_additional_columns</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -370,37 +404,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -451,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -492,6 +538,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,10 +755,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE371035-1C42-914F-8247-28923EC5B10E}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
@@ -1290,1773 +1419,6 @@
       <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="9"/>
-    </row>
-    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="9"/>
-    </row>
-    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="9"/>
-    </row>
-    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="9"/>
-    </row>
-    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="9"/>
-    </row>
-    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="9"/>
-    </row>
-    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="9"/>
-    </row>
-    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="9"/>
-    </row>
-    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="9"/>
-    </row>
-    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="9"/>
-    </row>
-    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="9"/>
-    </row>
-    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="9"/>
-    </row>
-    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="9"/>
-    </row>
-    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="9"/>
-    </row>
-    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="9"/>
-    </row>
-    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="9"/>
-    </row>
-    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="9"/>
-    </row>
-    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="9"/>
-    </row>
-    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="9"/>
-    </row>
-    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="9"/>
-    </row>
-    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="9"/>
-    </row>
-    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="9"/>
-    </row>
-    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="9"/>
-    </row>
-    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="9"/>
-    </row>
-    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="9"/>
-    </row>
-    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="9"/>
-    </row>
-    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="9"/>
-    </row>
-    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="9"/>
-    </row>
-    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="9"/>
-    </row>
-    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="9"/>
-    </row>
-    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="9"/>
-    </row>
-    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="9"/>
-    </row>
-    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="9"/>
-    </row>
-    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="9"/>
-    </row>
-    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="9"/>
-    </row>
-    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="9"/>
-    </row>
-    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="9"/>
-    </row>
-    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="9"/>
-    </row>
-    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="9"/>
-    </row>
-    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="9"/>
-    </row>
-    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="9"/>
-    </row>
-    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="9"/>
-    </row>
-    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="9"/>
-    </row>
-    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="9"/>
-    </row>
-    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="9"/>
-    </row>
-    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="9"/>
-    </row>
-    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="9"/>
-    </row>
-    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="9"/>
-    </row>
-    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="9"/>
-    </row>
-    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="9"/>
-    </row>
-    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="9"/>
-    </row>
-    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="9"/>
-    </row>
-    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="9"/>
-    </row>
-    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="9"/>
-    </row>
-    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="9"/>
-    </row>
-    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="9"/>
-    </row>
-    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="9"/>
-    </row>
-    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="9"/>
-    </row>
-    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="9"/>
-    </row>
-    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="9"/>
-    </row>
-    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="9"/>
-    </row>
-    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="9"/>
-    </row>
-    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="9"/>
-    </row>
-    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="9"/>
-    </row>
-    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="9"/>
-    </row>
-    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="9"/>
-    </row>
-    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="9"/>
-    </row>
-    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="9"/>
-    </row>
-    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="9"/>
-    </row>
-    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="9"/>
-    </row>
-    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="9"/>
-    </row>
-    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="9"/>
-    </row>
-    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="9"/>
-    </row>
-    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="9"/>
-    </row>
-    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="9"/>
-    </row>
-    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="9"/>
-    </row>
-    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="9"/>
-    </row>
-    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="9"/>
-    </row>
-    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="9"/>
-    </row>
-    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="9"/>
-    </row>
-    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="9"/>
-    </row>
-    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="9"/>
-    </row>
-    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="9"/>
-    </row>
-    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="9"/>
-    </row>
-    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="9"/>
-    </row>
-    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="9"/>
-    </row>
-    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="9"/>
-    </row>
-    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="9"/>
-    </row>
-    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="9"/>
-    </row>
-    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="9"/>
-    </row>
-    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="9"/>
-    </row>
-    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="9"/>
-    </row>
-    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="9"/>
-    </row>
-    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="9"/>
-    </row>
-    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="9"/>
-    </row>
-    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="9"/>
-    </row>
-    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="9"/>
-    </row>
-    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="9"/>
-    </row>
-    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="9"/>
-    </row>
-    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="9"/>
-    </row>
-    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="9"/>
-    </row>
-    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B148" s="9"/>
-    </row>
-    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="9"/>
-    </row>
-    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B150" s="9"/>
-    </row>
-    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="9"/>
-    </row>
-    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="9"/>
-    </row>
-    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="9"/>
-    </row>
-    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B154" s="9"/>
-    </row>
-    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B155" s="9"/>
-    </row>
-    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="9"/>
-    </row>
-    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="9"/>
-    </row>
-    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="9"/>
-    </row>
-    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="9"/>
-    </row>
-    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B160" s="9"/>
-    </row>
-    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B161" s="9"/>
-    </row>
-    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="9"/>
-    </row>
-    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="9"/>
-    </row>
-    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="9"/>
-    </row>
-    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="9"/>
-    </row>
-    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B166" s="9"/>
-    </row>
-    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="9"/>
-    </row>
-    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B168" s="9"/>
-    </row>
-    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B169" s="9"/>
-    </row>
-    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B170" s="9"/>
-    </row>
-    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B171" s="9"/>
-    </row>
-    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B172" s="9"/>
-    </row>
-    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B173" s="9"/>
-    </row>
-    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B174" s="9"/>
-    </row>
-    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B175" s="9"/>
-    </row>
-    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B176" s="9"/>
-    </row>
-    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B177" s="9"/>
-    </row>
-    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B178" s="9"/>
-    </row>
-    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B179" s="9"/>
-    </row>
-    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B180" s="9"/>
-    </row>
-    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B181" s="9"/>
-    </row>
-    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B182" s="9"/>
-    </row>
-    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B183" s="9"/>
-    </row>
-    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B184" s="9"/>
-    </row>
-    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B185" s="9"/>
-    </row>
-    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B186" s="9"/>
-    </row>
-    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B187" s="9"/>
-    </row>
-    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B188" s="9"/>
-    </row>
-    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B189" s="9"/>
-    </row>
-    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B190" s="9"/>
-    </row>
-    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B191" s="9"/>
-    </row>
-    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B192" s="9"/>
-    </row>
-    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B193" s="9"/>
-    </row>
-    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B194" s="9"/>
-    </row>
-    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B195" s="9"/>
-    </row>
-    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B196" s="9"/>
-    </row>
-    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B197" s="9"/>
-    </row>
-    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B198" s="9"/>
-    </row>
-    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B199" s="9"/>
-    </row>
-    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B200" s="9"/>
-    </row>
-    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B201" s="9"/>
-    </row>
-    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B202" s="9"/>
-    </row>
-    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B203" s="9"/>
-    </row>
-    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B204" s="9"/>
-    </row>
-    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B205" s="9"/>
-    </row>
-    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B206" s="9"/>
-    </row>
-    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B207" s="9"/>
-    </row>
-    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B208" s="9"/>
-    </row>
-    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B209" s="9"/>
-    </row>
-    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B210" s="9"/>
-    </row>
-    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B211" s="9"/>
-    </row>
-    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B212" s="9"/>
-    </row>
-    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B213" s="9"/>
-    </row>
-    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B214" s="9"/>
-    </row>
-    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B215" s="9"/>
-    </row>
-    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B216" s="9"/>
-    </row>
-    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B217" s="9"/>
-    </row>
-    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B218" s="9"/>
-    </row>
-    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B219" s="9"/>
-    </row>
-    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B220" s="9"/>
-    </row>
-    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="22.5" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="15" max="15" width="18.33203125" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" customWidth="1"/>
-    <col min="17" max="17" width="35.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4410,6 +2772,1773 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9"/>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9"/>
+    </row>
+    <row r="21" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="9"/>
+    </row>
+    <row r="27" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="9"/>
+    </row>
+    <row r="29" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="9"/>
+    </row>
+    <row r="31" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="9"/>
+    </row>
+    <row r="35" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="9"/>
+    </row>
+    <row r="36" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="54" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="9"/>
+    </row>
+    <row r="55" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="9"/>
+    </row>
+    <row r="57" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="9"/>
+    </row>
+    <row r="58" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="9"/>
+    </row>
+    <row r="59" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="9"/>
+    </row>
+    <row r="60" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="9"/>
+    </row>
+    <row r="61" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="9"/>
+    </row>
+    <row r="62" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="9"/>
+    </row>
+    <row r="63" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="9"/>
+    </row>
+    <row r="64" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="9"/>
+    </row>
+    <row r="68" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="9"/>
+    </row>
+    <row r="69" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="9"/>
+    </row>
+    <row r="70" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="9"/>
+    </row>
+    <row r="71" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="9"/>
+    </row>
+    <row r="72" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="9"/>
+    </row>
+    <row r="73" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="9"/>
+    </row>
+    <row r="74" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B74" s="9"/>
+    </row>
+    <row r="75" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="9"/>
+    </row>
+    <row r="76" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="9"/>
+    </row>
+    <row r="77" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="9"/>
+    </row>
+    <row r="78" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="9"/>
+    </row>
+    <row r="79" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B79" s="9"/>
+    </row>
+    <row r="80" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="9"/>
+    </row>
+    <row r="81" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B81" s="9"/>
+    </row>
+    <row r="82" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B82" s="9"/>
+    </row>
+    <row r="83" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B83" s="9"/>
+    </row>
+    <row r="84" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B84" s="9"/>
+    </row>
+    <row r="85" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B85" s="9"/>
+    </row>
+    <row r="86" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B86" s="9"/>
+    </row>
+    <row r="87" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B87" s="9"/>
+    </row>
+    <row r="88" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="9"/>
+    </row>
+    <row r="89" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B90" s="9"/>
+    </row>
+    <row r="91" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B91" s="9"/>
+    </row>
+    <row r="92" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="9"/>
+    </row>
+    <row r="94" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B95" s="9"/>
+    </row>
+    <row r="96" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="9"/>
+    </row>
+    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="9"/>
+    </row>
+    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="9"/>
+    </row>
+    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="9"/>
+    </row>
+    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="9"/>
+    </row>
+    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="9"/>
+    </row>
+    <row r="105" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B105" s="9"/>
+    </row>
+    <row r="106" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B106" s="9"/>
+    </row>
+    <row r="107" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B107" s="9"/>
+    </row>
+    <row r="108" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B108" s="9"/>
+    </row>
+    <row r="109" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B109" s="9"/>
+    </row>
+    <row r="110" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B110" s="9"/>
+    </row>
+    <row r="111" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B111" s="9"/>
+    </row>
+    <row r="112" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B112" s="9"/>
+    </row>
+    <row r="113" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B113" s="9"/>
+    </row>
+    <row r="114" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B114" s="9"/>
+    </row>
+    <row r="115" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B115" s="9"/>
+    </row>
+    <row r="116" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B116" s="9"/>
+    </row>
+    <row r="117" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B117" s="9"/>
+    </row>
+    <row r="118" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B118" s="9"/>
+    </row>
+    <row r="119" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B119" s="9"/>
+    </row>
+    <row r="120" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B120" s="9"/>
+    </row>
+    <row r="121" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B121" s="9"/>
+    </row>
+    <row r="122" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B122" s="9"/>
+    </row>
+    <row r="123" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="9"/>
+    </row>
+    <row r="124" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="9"/>
+    </row>
+    <row r="125" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B125" s="9"/>
+    </row>
+    <row r="126" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B126" s="9"/>
+    </row>
+    <row r="127" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B127" s="9"/>
+    </row>
+    <row r="128" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B128" s="9"/>
+    </row>
+    <row r="129" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="9"/>
+    </row>
+    <row r="130" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="9"/>
+    </row>
+    <row r="131" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B131" s="9"/>
+    </row>
+    <row r="132" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B132" s="9"/>
+    </row>
+    <row r="133" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B133" s="9"/>
+    </row>
+    <row r="134" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B134" s="9"/>
+    </row>
+    <row r="135" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B135" s="9"/>
+    </row>
+    <row r="136" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="9"/>
+    </row>
+    <row r="137" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B137" s="9"/>
+    </row>
+    <row r="138" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B138" s="9"/>
+    </row>
+    <row r="139" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="9"/>
+    </row>
+    <row r="140" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B140" s="9"/>
+    </row>
+    <row r="141" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B141" s="9"/>
+    </row>
+    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B142" s="9"/>
+    </row>
+    <row r="143" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B143" s="9"/>
+    </row>
+    <row r="144" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B144" s="9"/>
+    </row>
+    <row r="145" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B145" s="9"/>
+    </row>
+    <row r="146" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B146" s="9"/>
+    </row>
+    <row r="147" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B147" s="9"/>
+    </row>
+    <row r="148" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B148" s="9"/>
+    </row>
+    <row r="149" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B149" s="9"/>
+    </row>
+    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B150" s="9"/>
+    </row>
+    <row r="151" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B151" s="9"/>
+    </row>
+    <row r="152" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B152" s="9"/>
+    </row>
+    <row r="153" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B153" s="9"/>
+    </row>
+    <row r="154" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B154" s="9"/>
+    </row>
+    <row r="155" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B155" s="9"/>
+    </row>
+    <row r="156" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B156" s="9"/>
+    </row>
+    <row r="157" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B157" s="9"/>
+    </row>
+    <row r="158" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B158" s="9"/>
+    </row>
+    <row r="159" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B159" s="9"/>
+    </row>
+    <row r="160" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B160" s="9"/>
+    </row>
+    <row r="161" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="9"/>
+    </row>
+    <row r="162" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="9"/>
+    </row>
+    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="9"/>
+    </row>
+    <row r="164" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="9"/>
+    </row>
+    <row r="165" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="9"/>
+    </row>
+    <row r="166" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B166" s="9"/>
+    </row>
+    <row r="167" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B167" s="9"/>
+    </row>
+    <row r="168" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B168" s="9"/>
+    </row>
+    <row r="169" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B169" s="9"/>
+    </row>
+    <row r="170" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B170" s="9"/>
+    </row>
+    <row r="171" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B171" s="9"/>
+    </row>
+    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B172" s="9"/>
+    </row>
+    <row r="173" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B173" s="9"/>
+    </row>
+    <row r="174" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B174" s="9"/>
+    </row>
+    <row r="175" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B175" s="9"/>
+    </row>
+    <row r="176" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B176" s="9"/>
+    </row>
+    <row r="177" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B177" s="9"/>
+    </row>
+    <row r="178" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B178" s="9"/>
+    </row>
+    <row r="179" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B179" s="9"/>
+    </row>
+    <row r="180" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B180" s="9"/>
+    </row>
+    <row r="181" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B181" s="9"/>
+    </row>
+    <row r="182" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B182" s="9"/>
+    </row>
+    <row r="183" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B183" s="9"/>
+    </row>
+    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B184" s="9"/>
+    </row>
+    <row r="185" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B185" s="9"/>
+    </row>
+    <row r="186" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B186" s="9"/>
+    </row>
+    <row r="187" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B187" s="9"/>
+    </row>
+    <row r="188" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B188" s="9"/>
+    </row>
+    <row r="189" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B189" s="9"/>
+    </row>
+    <row r="190" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B190" s="9"/>
+    </row>
+    <row r="191" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B191" s="9"/>
+    </row>
+    <row r="192" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B192" s="9"/>
+    </row>
+    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B193" s="9"/>
+    </row>
+    <row r="194" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B194" s="9"/>
+    </row>
+    <row r="195" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B195" s="9"/>
+    </row>
+    <row r="196" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B196" s="9"/>
+    </row>
+    <row r="197" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B197" s="9"/>
+    </row>
+    <row r="198" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B198" s="9"/>
+    </row>
+    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B199" s="9"/>
+    </row>
+    <row r="200" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B200" s="9"/>
+    </row>
+    <row r="201" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B201" s="9"/>
+    </row>
+    <row r="202" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B202" s="9"/>
+    </row>
+    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B203" s="9"/>
+    </row>
+    <row r="204" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B204" s="9"/>
+    </row>
+    <row r="205" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B205" s="9"/>
+    </row>
+    <row r="206" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B206" s="9"/>
+    </row>
+    <row r="207" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B207" s="9"/>
+    </row>
+    <row r="208" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B208" s="9"/>
+    </row>
+    <row r="209" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B209" s="9"/>
+    </row>
+    <row r="210" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B210" s="9"/>
+    </row>
+    <row r="211" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B211" s="9"/>
+    </row>
+    <row r="212" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B212" s="9"/>
+    </row>
+    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B213" s="9"/>
+    </row>
+    <row r="214" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B214" s="9"/>
+    </row>
+    <row r="215" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B215" s="9"/>
+    </row>
+    <row r="216" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B216" s="9"/>
+    </row>
+    <row r="217" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B217" s="9"/>
+    </row>
+    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B218" s="9"/>
+    </row>
+    <row r="219" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B219" s="9"/>
+    </row>
+    <row r="220" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B220" s="9"/>
+    </row>
+    <row r="221" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5457,7 +5586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6559,7 +6688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071CBA14-C2D0-034E-A020-CE60BF77528B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B56EE0-9103-DE47-AD4D-0A065EFBC506}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -339,54 +339,55 @@
     <t>annualreport_id</t>
   </si>
   <si>
-    <t>Rcvd Date1
+    <t>get_max_col</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>current_date</t>
+  </si>
+  <si>
+    <t>mapping_file_name</t>
+  </si>
+  <si>
+    <t>entity_name</t>
+  </si>
+  <si>
+    <t>required_entities</t>
+  </si>
+  <si>
+    <t>destination_table_name</t>
+  </si>
+  <si>
+    <t>table_type</t>
+  </si>
+  <si>
+    <t>source_table_name</t>
+  </si>
+  <si>
+    <t>casrec_conditions</t>
+  </si>
+  <si>
+    <t>source_table_additional_columns</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>Rcvd Date
+Rcvd Date1
 Rcvd Date2
 Rcvd Date3
 Rcvd Date4
 Rcvd Date5
 Rcvd Date6</t>
-  </si>
-  <si>
-    <t>get_max_col</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>current_date</t>
-  </si>
-  <si>
-    <t>mapping_file_name</t>
-  </si>
-  <si>
-    <t>entity_name</t>
-  </si>
-  <si>
-    <t>required_entities</t>
-  </si>
-  <si>
-    <t>destination_table_name</t>
-  </si>
-  <si>
-    <t>table_type</t>
-  </si>
-  <si>
-    <t>source_table_name</t>
-  </si>
-  <si>
-    <t>casrec_conditions</t>
-  </si>
-  <si>
-    <t>source_table_additional_columns</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>account</t>
   </si>
 </sst>
 </file>
@@ -758,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE371035-1C42-914F-8247-28923EC5B10E}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -766,28 +767,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>115</v>
       </c>
       <c r="I1" s="21"/>
     </row>
@@ -802,13 +803,13 @@
         <v>17</v>
       </c>
       <c r="E2" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -822,10 +823,10 @@
         <v>61</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -838,9 +839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -972,7 +973,7 @@
         <v>26</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -998,7 +999,7 @@
         <v>25</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1116,7 +1117,7 @@
         <v>36</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1179,13 +1180,13 @@
         <v>24</v>
       </c>
       <c r="J12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
         <v>104</v>
       </c>
-      <c r="K12" t="s">
+      <c r="P12" t="s">
         <v>105</v>
-      </c>
-      <c r="P12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B56EE0-9103-DE47-AD4D-0A065EFBC506}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC67716-1DE1-F74A-8138-79991A8A40D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="116">
   <si>
     <t>table_name</t>
   </si>
@@ -105,9 +105,6 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>calculate_duedate</t>
-  </si>
-  <si>
     <t>reportingperiodenddate</t>
   </si>
   <si>
@@ -129,13 +126,7 @@
     <t>reportduereminderdate</t>
   </si>
   <si>
-    <t>calculate_reminderdate</t>
-  </si>
-  <si>
     <t>reportingperiodstartdate</t>
-  </si>
-  <si>
-    <t>calculate_startdate</t>
   </si>
   <si>
     <t>client_id</t>
@@ -767,28 +758,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>114</v>
       </c>
       <c r="I1" s="21"/>
     </row>
@@ -803,30 +794,30 @@
         <v>17</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -841,7 +832,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -963,17 +954,13 @@
       <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="K3" s="6"/>
       <c r="N3" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -984,7 +971,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>23</v>
@@ -999,7 +986,7 @@
         <v>25</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1010,7 +997,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>23</v>
@@ -1022,7 +1009,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1033,7 +1020,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -1053,7 +1040,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -1062,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1073,7 +1060,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
@@ -1087,9 +1074,7 @@
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1099,7 +1084,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>23</v>
@@ -1113,11 +1098,9 @@
       <c r="I9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="K9" s="6"/>
       <c r="N9" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1128,7 +1111,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -1137,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1151,10 +1134,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="b">
         <v>0</v>
@@ -1168,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>23</v>
@@ -1180,13 +1163,13 @@
         <v>24</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1197,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>23</v>
@@ -1214,10 +1197,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="b">
         <v>0</v>
@@ -1231,10 +1214,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="b">
         <v>0</v>
@@ -1248,10 +1231,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="b">
         <v>0</v>
@@ -1260,16 +1243,14 @@
         <v>24</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1280,14 +1261,15 @@
         <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -1297,14 +1279,15 @@
         <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -1314,14 +1297,15 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -1331,7 +1315,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>23</v>
@@ -1343,8 +1327,9 @@
         <v>24</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
@@ -1354,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>20</v>
@@ -1363,8 +1348,9 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
@@ -1374,7 +1360,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>20</v>
@@ -1383,13 +1369,11 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="P22" s="10"/>
       <c r="Q22" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2866,7 +2850,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -2883,13 +2867,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>20</v>
@@ -2898,38 +2882,38 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>23</v>
@@ -2938,47 +2922,47 @@
         <v>0</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="b">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>23</v>
@@ -2987,79 +2971,79 @@
         <v>0</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>23</v>
@@ -3068,21 +3052,21 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>23</v>
@@ -3091,27 +3075,27 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>20</v>
@@ -3120,13 +3104,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4555,16 +4539,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4573,10 +4557,10 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5603,93 +5587,93 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6783,7 +6767,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -6800,16 +6784,16 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5" t="b">
         <v>0</v>
@@ -6817,16 +6801,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
@@ -6834,16 +6818,16 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="b">
         <v>0</v>
@@ -6851,13 +6835,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -6866,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC67716-1DE1-F74A-8138-79991A8A40D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8703FF54-F97B-744C-AD23-EAD0F59E881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="121">
   <si>
     <t>table_name</t>
   </si>
@@ -334,9 +334,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>current_date</t>
   </si>
   <si>
     <t>mapping_file_name</t>
@@ -379,6 +376,24 @@
 Rcvd Date4
 Rcvd Date5
 Rcvd Date6</t>
+  </si>
+  <si>
+    <t>calculate_date:reportingperiodenddate+21|next-working-day</t>
+  </si>
+  <si>
+    <t>calculate_date:reportingperiodenddate-21|previous-working-day</t>
+  </si>
+  <si>
+    <t>calculate_date:reportingperiodenddate-366</t>
+  </si>
+  <si>
+    <t>21 days before reportingperiodenddate, or closest previous working day if that falls on a weekend</t>
+  </si>
+  <si>
+    <t>21 days after reportingperiodenddate, or closest next working day if that falls on a weekend</t>
+  </si>
+  <si>
+    <t>366 days before reportingperiodenddate</t>
   </si>
 </sst>
 </file>
@@ -758,28 +773,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>111</v>
       </c>
       <c r="I1" s="21"/>
     </row>
@@ -794,13 +809,13 @@
         <v>17</v>
       </c>
       <c r="E2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -814,10 +829,10 @@
         <v>58</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -832,7 +847,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P13" sqref="P13:P22"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -850,7 +865,7 @@
     <col min="11" max="11" width="22.5" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
     <col min="13" max="13" width="13" style="18" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="14" max="14" width="54.33203125" customWidth="1"/>
     <col min="15" max="15" width="18.33203125" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" customWidth="1"/>
@@ -959,8 +974,11 @@
         <v>25</v>
       </c>
       <c r="K3" s="6"/>
-      <c r="N3" s="19" t="s">
-        <v>103</v>
+      <c r="N3" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -985,9 +1003,7 @@
       <c r="J4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="19" t="s">
-        <v>103</v>
-      </c>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -1075,6 +1091,12 @@
         <v>25</v>
       </c>
       <c r="K8" s="6"/>
+      <c r="N8" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1099,8 +1121,11 @@
         <v>25</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="N9" s="19" t="s">
-        <v>103</v>
+      <c r="N9" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1163,7 +1188,7 @@
         <v>24</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
         <v>101</v>

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8703FF54-F97B-744C-AD23-EAD0F59E881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1D883E-C128-8E4A-8772-F27FF914A62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="121">
   <si>
     <t>table_name</t>
   </si>
@@ -378,15 +378,6 @@
 Rcvd Date6</t>
   </si>
   <si>
-    <t>calculate_date:reportingperiodenddate+21|next-working-day</t>
-  </si>
-  <si>
-    <t>calculate_date:reportingperiodenddate-21|previous-working-day</t>
-  </si>
-  <si>
-    <t>calculate_date:reportingperiodenddate-366</t>
-  </si>
-  <si>
     <t>21 days before reportingperiodenddate, or closest previous working day if that falls on a weekend</t>
   </si>
   <si>
@@ -394,6 +385,15 @@
   </si>
   <si>
     <t>366 days before reportingperiodenddate</t>
+  </si>
+  <si>
+    <t>calculate_startdate</t>
+  </si>
+  <si>
+    <t>calculate_reminderdate</t>
+  </si>
+  <si>
+    <t>calculate_duedate</t>
   </si>
 </sst>
 </file>
@@ -770,6 +770,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
@@ -847,7 +851,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -865,7 +869,7 @@
     <col min="11" max="11" width="22.5" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
     <col min="13" max="13" width="13" style="18" customWidth="1"/>
-    <col min="14" max="14" width="54.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" customWidth="1"/>
     <col min="15" max="15" width="18.33203125" customWidth="1"/>
     <col min="16" max="16" width="11.6640625" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" customWidth="1"/>
@@ -969,16 +973,24 @@
       <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="I3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="N3" s="22" t="s">
-        <v>115</v>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="22"/>
+      <c r="P3" t="s">
+        <v>102</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1004,6 +1016,9 @@
         <v>25</v>
       </c>
       <c r="N4" s="19"/>
+      <c r="P4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -1090,12 +1105,18 @@
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="N8" s="22" t="s">
-        <v>116</v>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" s="22"/>
+      <c r="P8" t="s">
+        <v>102</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1120,12 +1141,18 @@
       <c r="I9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="N9" s="22" t="s">
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="P9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q9" s="22" t="s">
         <v>117</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1D883E-C128-8E4A-8772-F27FF914A62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2FEDA2-73A4-C44F-BD50-4D298149480F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="121">
   <si>
     <t>table_name</t>
   </si>
@@ -851,7 +851,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1381,7 +1381,9 @@
       <c r="J20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="10"/>
+      <c r="P20" s="10" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">

--- a/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elliotsmith/projects/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6867B81B-97EA-FA40-8A48-4E16E1A35F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F54B6B-1D38-7E4C-8DA2-1CE93B7F90EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="19440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="19440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -390,20 +390,20 @@
     <t>no</t>
   </si>
   <si>
-    <t>Staff: referred</t>
-  </si>
-  <si>
-    <t>No Review</t>
-  </si>
-  <si>
-    <t>Reviewed</t>
+    <t>STAFF_REFERRED</t>
+  </si>
+  <si>
+    <t>NO_REVIEW</t>
+  </si>
+  <si>
+    <t>REVIEWED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -469,6 +469,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Menlo"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -539,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -609,6 +614,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
@@ -5697,13 +5703,15 @@
   </sheetPr>
   <dimension ref="A1:D990"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="14.5" customWidth="1"/>
+    <col min="1" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="6" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5720,7 +5728,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>86</v>
       </c>
@@ -5730,11 +5738,11 @@
       <c r="C2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>88</v>
       </c>
@@ -5744,11 +5752,11 @@
       <c r="C3" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="35" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>89</v>
       </c>
@@ -5758,7 +5766,7 @@
       <c r="C4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="35" t="s">
         <v>121</v>
       </c>
     </row>
